--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AUS-SRV-FS01\RedirectedFolders$\svc_rpabot_dev02\Documents\UiPath\Legal_DropList_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AUS-SRV-FS01\RedirectedFolders$\svc_rpabot_dev02\Documents\UiPath\Legal_StagnantCarriers_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21CDE9-C758-4795-8EE2-AB976330BCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6AE529-2D8E-4D9A-ABA1-FC22F216642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15705" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -37,9 +37,6 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>13_Legal_DropList</t>
-  </si>
-  <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
   </si>
   <si>
@@ -55,27 +52,15 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Legal_DropList_Performer</t>
-  </si>
-  <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
     <t>ArriveNow_CredentialName</t>
   </si>
   <si>
-    <t>13_ArriveNowCredentials</t>
-  </si>
-  <si>
     <t>The name of the orchestrator asset where the ArriveNow credentials are stored</t>
   </si>
   <si>
-    <t>ReportHeaders</t>
-  </si>
-  <si>
-    <t>{"Execution DateTime", "CarrierCode", "CarrierName", "SalesRep", "CurrentSalesRep", "Status", "Remarks"}</t>
-  </si>
-  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -178,63 +163,39 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>EmailAccount</t>
-  </si>
-  <si>
-    <t>Email account in which the DropList report is being sent to</t>
-  </si>
-  <si>
     <t>GDriveReportFolder</t>
   </si>
   <si>
-    <t>13_GDriveReportFolder</t>
-  </si>
-  <si>
     <t>GDrive folder path where the execution reports are stored</t>
   </si>
   <si>
     <t>GDriveMasterReport</t>
   </si>
   <si>
-    <t>13_GDriveMasterReportPath</t>
-  </si>
-  <si>
     <t>Gdrive folder path where the Master execution report is stored</t>
   </si>
   <si>
     <t>ToEmail</t>
   </si>
   <si>
-    <t>13_ToEmail</t>
-  </si>
-  <si>
     <t>List of email accounts which the execution report is going to be sent</t>
   </si>
   <si>
     <t>ArrivePortalURL</t>
   </si>
   <si>
-    <t>13_ArrivePortalURL</t>
-  </si>
-  <si>
     <t>Sign in page for Arrive portal</t>
   </si>
   <si>
     <t>ArriveNowURL</t>
   </si>
   <si>
-    <t>13_ArriveNowURL</t>
-  </si>
-  <si>
     <t>Main page for ArriveNow portal</t>
   </si>
   <si>
     <t>ArriveTruckEntryURL</t>
   </si>
   <si>
-    <t>13_ArriveTruckEntryURL</t>
-  </si>
-  <si>
     <t>Main page for ArriveNow truck entry portal</t>
   </si>
   <si>
@@ -247,28 +208,55 @@
     <t>CarrierName</t>
   </si>
   <si>
-    <t>SalesRep</t>
-  </si>
-  <si>
-    <t>CurrentSalesRep</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>13_EmailAddress</t>
-  </si>
-  <si>
     <t>CCEmail</t>
   </si>
   <si>
-    <t>13_CCEmail</t>
-  </si>
-  <si>
     <t>Tech email account</t>
+  </si>
+  <si>
+    <t>14_GDriveReportFolder</t>
+  </si>
+  <si>
+    <t>14_GDriveMasterReportPath</t>
+  </si>
+  <si>
+    <t>14_ToEmail</t>
+  </si>
+  <si>
+    <t>14_ArrivePortalURL</t>
+  </si>
+  <si>
+    <t>14_ArriveNowURL</t>
+  </si>
+  <si>
+    <t>14_ArriveTruckEntryURL</t>
+  </si>
+  <si>
+    <t>14_CCEmail</t>
+  </si>
+  <si>
+    <t>AuditComment</t>
+  </si>
+  <si>
+    <t>14_AuditComment</t>
+  </si>
+  <si>
+    <t>Stagnant Carrier comment template</t>
+  </si>
+  <si>
+    <t>14_ArriveNowCredentials</t>
+  </si>
+  <si>
+    <t>Legal_StagnantCarriers_Performer</t>
+  </si>
+  <si>
+    <t>13_Legal_StagnantCarriers</t>
   </si>
 </sst>
 </file>
@@ -549,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -599,53 +587,46 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -858,7 +839,7 @@
     <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1620,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1695,137 +1675,137 @@
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2820,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2839,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2870,114 +2850,114 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3170,7 @@
     <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3970,7 +3950,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3982,39 +3961,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AUS-SRV-FS01\RedirectedFolders$\svc_rpabot_dev02\Documents\UiPath\Legal_StagnantCarriers_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6AE529-2D8E-4D9A-ABA1-FC22F216642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAA17B-3542-4984-A154-510FF39E4A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="795" windowWidth="21600" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <t>Legal_StagnantCarriers_Performer</t>
   </si>
   <si>
-    <t>13_Legal_StagnantCarriers</t>
+    <t>14_Legal_StagnantCarriers</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3963,7 +3963,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AUS-SRV-FS01\RedirectedFolders$\svc_rpabot_dev02\Documents\UiPath\Legal_StagnantCarriers_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAA17B-3542-4984-A154-510FF39E4A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD771BEE-0CCF-4607-B3FD-1EA632C12DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="795" windowWidth="21600" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="10695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -169,9 +169,6 @@
     <t>GDrive folder path where the execution reports are stored</t>
   </si>
   <si>
-    <t>GDriveMasterReport</t>
-  </si>
-  <si>
     <t>Gdrive folder path where the Master execution report is stored</t>
   </si>
   <si>
@@ -257,6 +254,18 @@
   </si>
   <si>
     <t>14_Legal_StagnantCarriers</t>
+  </si>
+  <si>
+    <t>14_GDriveMasterReportID</t>
+  </si>
+  <si>
+    <t>GDriveMasterReportPath</t>
+  </si>
+  <si>
+    <t>GDriveMasterReportID</t>
+  </si>
+  <si>
+    <t>Gdrive folder ID for the Master execution report file</t>
   </si>
 </sst>
 </file>
@@ -539,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -587,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -609,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -620,7 +629,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -2802,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2862,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -2864,103 +2873,116 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3975,19 +3997,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AUS-SRV-FS01\RedirectedFolders$\svc_rpabot_dev02\Documents\UiPath\Legal_StagnantCarriers_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD771BEE-0CCF-4607-B3FD-1EA632C12DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED455C-A131-4ECF-A461-4480AA787417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="10695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="14745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -266,6 +266,24 @@
   </si>
   <si>
     <t>Gdrive folder ID for the Master execution report file</t>
+  </si>
+  <si>
+    <t>14_ReportFileID</t>
+  </si>
+  <si>
+    <t>14_ReportFileURL</t>
+  </si>
+  <si>
+    <t>ReportFileID</t>
+  </si>
+  <si>
+    <t>ReportFileURL</t>
+  </si>
+  <si>
+    <t>Gdrive ID for the current report file</t>
+  </si>
+  <si>
+    <t>Gdrive URL for the current report file</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +2830,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2983,8 +3001,34 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
